--- a/exports/UD_French-ParTUT/VERB-indirect-onj.xlsx
+++ b/exports/UD_French-ParTUT/VERB-indirect-onj.xlsx
@@ -2119,7 +2119,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> plus sur le bouton "s'abonner", consultez les Aide. </t>
+          <t xml:space="preserve"> plus sur le bouton ""s'abonner"", consultez les Aide. </t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">, a écrit dans les années 40 que, "les gaz émanant de la crasse flottante dans les anses du golfe étaient si mauvais qu'ils faisaient même noircir les peintures au plomb". </t>
+          <t xml:space="preserve">, a écrit dans les années 40 que, ""les gaz émanant de la crasse flottante dans les anses du golfe étaient si mauvais qu'ils faisaient même noircir les peintures au plomb"". </t>
         </is>
       </c>
     </row>
